--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npatel/Dropbox/Oakland/Teaching/CSI4999/Winter2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C471F-A89B-4670-8C12-C8B006B096D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="3200" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="2370" windowWidth="19980" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
   <si>
-    <t>Wrote usecases UC1, UC2. Developed practice and proceedure for effectively using GIT</t>
-  </si>
-  <si>
-    <t>You must provide accurate artifacts created by you. For example</t>
-  </si>
-  <si>
     <t>Artifact Name</t>
   </si>
   <si>
@@ -49,12 +43,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Pages 11, 12</t>
-  </si>
-  <si>
     <t>Class Diagram</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>Objectives</t>
   </si>
   <si>
-    <t>Example Template</t>
-  </si>
-  <si>
     <t>Your Name</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>Speciifcs of the script and purpose</t>
   </si>
   <si>
-    <t>Requirements.doc</t>
-  </si>
-  <si>
     <t>Sprint # 1</t>
   </si>
   <si>
@@ -221,6 +203,28 @@
   </si>
   <si>
     <t>6[CS, IT]</t>
+  </si>
+  <si>
+    <t>Researched/proposed development environments (IDEs) compatible with possible languages and frameworks to be used.</t>
+  </si>
+  <si>
+    <t>Sprint1.doc; 
+Sprint1.pptx</t>
+  </si>
+  <si>
+    <t>Page 2,
+Slide 9</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx;
+https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx
+Sprint1.doc</t>
+  </si>
+  <si>
+    <t>Luis Ramirez</t>
+  </si>
+  <si>
+    <t>Golf Player Time Management System</t>
   </si>
 </sst>
 </file>
@@ -381,35 +385,46 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -423,24 +438,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,6 +449,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,294 +741,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="25">
+        <v>16</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="7">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1036,13 +1045,9 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1054,219 +1059,219 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C471F-A89B-4670-8C12-C8B006B096D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6731F5-ECC7-49FB-9D2B-C0DD8C4FC080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="2370" windowWidth="19980" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2715" windowWidth="19980" windowHeight="11490" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -43,75 +43,12 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Design.doc</t>
-  </si>
-  <si>
-    <t>Page 3,4</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
-  </si>
-  <si>
-    <t>Sprint2.ppt</t>
-  </si>
-  <si>
-    <t>Slide 4 to 6</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Someclass.java</t>
-  </si>
-  <si>
-    <t>New code(20), Updated(3)</t>
-  </si>
-  <si>
-    <t>Project plan</t>
-  </si>
-  <si>
-    <t>plan.prj</t>
-  </si>
-  <si>
-    <t>task 1 to 5</t>
-  </si>
-  <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>Bugzilla</t>
-  </si>
-  <si>
-    <t>Bug ID - 1, 3, 7</t>
-  </si>
-  <si>
-    <t>testcase.java</t>
-  </si>
-  <si>
-    <t>Unit test</t>
-  </si>
-  <si>
-    <t>New code(23), Updated(1)</t>
-  </si>
-  <si>
-    <t>Test data</t>
-  </si>
-  <si>
-    <t>New test data (5)</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
     <t>Team Member</t>
   </si>
   <si>
-    <t>Joe, Smith</t>
-  </si>
-  <si>
     <t>Towards objectives</t>
   </si>
   <si>
@@ -124,39 +61,9 @@
     <t>Your Name</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>Sprint#</t>
   </si>
   <si>
-    <t>Research Report</t>
-  </si>
-  <si>
-    <t>Report.doc</t>
-  </si>
-  <si>
-    <t>page 1 to 20</t>
-  </si>
-  <si>
-    <t>Project Setup</t>
-  </si>
-  <si>
-    <t>Joining Team.doc</t>
-  </si>
-  <si>
-    <t>page 1 - 10</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>build scripts..</t>
-  </si>
-  <si>
-    <t>Speciifcs of the script and purpose</t>
-  </si>
-  <si>
     <t>Sprint # 1</t>
   </si>
   <si>
@@ -191,9 +98,6 @@
   </si>
   <si>
     <t>Sprint # 12</t>
-  </si>
-  <si>
-    <t>Example Project</t>
   </si>
   <si>
     <t>6[CS]</t>
@@ -225,6 +129,9 @@
   </si>
   <si>
     <t>Golf Player Time Management System</t>
+  </si>
+  <si>
+    <t>Ramirez, Luis</t>
   </si>
 </sst>
 </file>
@@ -409,6 +316,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -426,18 +354,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -449,15 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,43 +665,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="16"/>
+      <c r="A3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -810,214 +717,154 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="25">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="11">
         <v>16</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>60</v>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="11"/>
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="11"/>
+      <c r="A13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="11"/>
+      <c r="A14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="11"/>
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -1027,11 +874,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1045,6 +887,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1055,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1069,54 +916,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1134,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
       </c>
       <c r="I5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6731F5-ECC7-49FB-9D2B-C0DD8C4FC080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491031B-3DF0-4DA7-9F1D-8F8114E197C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2715" windowWidth="19980" windowHeight="11490" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2715" windowWidth="19980" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -120,18 +120,18 @@
 Slide 9</t>
   </si>
   <si>
-    <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx;
+    <t>Luis Ramirez</t>
+  </si>
+  <si>
+    <t>Golf Player Time Management System</t>
+  </si>
+  <si>
+    <t>Ramirez, Luis</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/Luis/docs/sprints/Sprint%201.docx
 https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx
 Sprint1.doc</t>
-  </si>
-  <si>
-    <t>Luis Ramirez</t>
-  </si>
-  <si>
-    <t>Golf Player Time Management System</t>
-  </si>
-  <si>
-    <t>Ramirez, Luis</t>
   </si>
 </sst>
 </file>
@@ -324,6 +324,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -334,24 +352,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,38 +665,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -717,10 +717,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -734,17 +734,17 @@
         <v>27</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -753,10 +753,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -765,10 +765,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -777,10 +777,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -789,10 +789,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -801,10 +801,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -813,10 +813,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -825,10 +825,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -837,10 +837,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -849,10 +849,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -861,10 +861,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -874,6 +874,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -887,11 +892,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -902,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -931,19 +931,19 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491031B-3DF0-4DA7-9F1D-8F8114E197C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3AFF0B-C90B-4649-A7BF-99C38C5A15E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="2715" windowWidth="19980" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,22 +116,21 @@
 Sprint1.pptx</t>
   </si>
   <si>
-    <t>Page 2,
+    <t>Luis Ramirez</t>
+  </si>
+  <si>
+    <t>Golf Player Time Management System</t>
+  </si>
+  <si>
+    <t>Ramirez, Luis</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/Luis/docs/sprints/Sprint%201.docx
+https://github.com/quentinxs/GPTMS/blob/Luis/docs/presentations/Sprint%201.pptx</t>
+  </si>
+  <si>
+    <t>Page 2-3,
 Slide 9</t>
-  </si>
-  <si>
-    <t>Luis Ramirez</t>
-  </si>
-  <si>
-    <t>Golf Player Time Management System</t>
-  </si>
-  <si>
-    <t>Ramirez, Luis</t>
-  </si>
-  <si>
-    <t>https://github.com/quentinxs/GPTMS/blob/Luis/docs/sprints/Sprint%201.docx
-https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx
-Sprint1.doc</t>
   </si>
 </sst>
 </file>
@@ -289,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -324,6 +323,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,18 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +651,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,38 +667,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -717,10 +719,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -734,17 +736,17 @@
         <v>27</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -753,10 +755,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -765,10 +767,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -777,10 +779,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -789,10 +791,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -801,10 +803,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -813,10 +815,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -825,10 +827,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -837,10 +839,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -849,10 +851,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -861,10 +863,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -874,11 +876,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -892,6 +889,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -921,7 +923,7 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -931,19 +933,19 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
@@ -992,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3AFF0B-C90B-4649-A7BF-99C38C5A15E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206CA2F-6D9B-4D70-966A-CB6250524F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="2715" windowWidth="19980" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="960" windowWidth="26385" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -131,6 +131,20 @@
   <si>
     <t>Page 2-3,
 Slide 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">front-end folder
+Sprint2.pptx
+</t>
+  </si>
+  <si>
+    <t>Designed/created sign up form for users,
+worked on information for Sprint 2 presentation(class diagram and Quality Assurance tests), and provided user stories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signup component
+Slides 3, 5-7
+</t>
   </si>
 </sst>
 </file>
@@ -288,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -323,6 +337,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -335,24 +376,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,9 +388,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +672,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,38 +688,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -719,10 +740,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -742,23 +763,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="15">
+        <v>16</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -767,10 +796,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -779,10 +808,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -791,10 +820,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -803,10 +832,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -815,10 +844,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -827,10 +856,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -839,10 +868,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -851,10 +880,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -863,10 +892,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -876,6 +905,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -889,11 +923,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -905,7 +934,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -918,47 +947,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1019,30 +1048,62 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A206CA2F-6D9B-4D70-966A-CB6250524F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67740288-CD8C-4062-9D8D-AD4D281F38E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="960" windowWidth="26385" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1095" windowWidth="26385" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -145,13 +145,16 @@
     <t xml:space="preserve">signup component
 Slides 3, 5-7
 </t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 6[CS,IT]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +198,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,8 +310,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -338,11 +350,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,18 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,9 +400,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,38 +701,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -740,10 +753,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -763,15 +776,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="15">
+      <c r="B5" s="26"/>
+      <c r="C5" s="14">
         <v>16</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
@@ -784,10 +799,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -796,10 +811,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -808,10 +823,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -820,10 +835,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -832,10 +847,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -844,10 +859,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -856,10 +871,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -868,10 +883,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -880,10 +895,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -892,10 +907,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -905,11 +920,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -923,6 +933,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -934,7 +949,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,19 +977,19 @@
       <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -1096,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="8">
         <v>3</v>
       </c>
       <c r="I7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67740288-CD8C-4062-9D8D-AD4D281F38E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347275FE-CEB2-4EE1-BD6A-BA086AD1776F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1095" windowWidth="26385" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1395" windowWidth="26385" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -133,21 +133,29 @@
 Slide 9</t>
   </si>
   <si>
+    <t>Designed/created sign up form for users,
+worked on information for Sprint 2 presentation(class diagram and Quality Assurance tests), and provided user stories.</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 6[CS,IT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app
+https://github.com/quentinxs/GPTMS/blob/Luis/docs/presentations/Sprint%202.pptx
+https://github.com/quentinxs/GPTMS/blob/Luis/.github/ISSUE_TEMPLATE/User%20Stories.docx
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">front-end folder
 Sprint2.pptx
+User Stories.docx
 </t>
   </si>
   <si>
-    <t>Designed/created sign up form for users,
-worked on information for Sprint 2 presentation(class diagram and Quality Assurance tests), and provided user stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signup component
+    <t xml:space="preserve">signup folder
 Slides 3, 5-7
+Sprint 2 and 3 stories
 </t>
-  </si>
-  <si>
-    <t>1, 2, 3, 5, 6[CS,IT]</t>
   </si>
 </sst>
 </file>
@@ -355,6 +363,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -367,27 +396,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,7 +408,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,38 +711,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -753,10 +763,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -776,33 +786,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="14">
         <v>16</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -811,10 +823,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -823,10 +835,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -835,10 +847,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -847,10 +859,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -859,10 +871,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -871,10 +883,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -883,10 +895,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -895,10 +907,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -907,10 +919,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -920,6 +932,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -933,11 +950,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -977,19 +989,19 @@
       <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347275FE-CEB2-4EE1-BD6A-BA086AD1776F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF8728-0DA7-4988-A83D-7A84869DF118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1395" windowWidth="26385" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1395" windowWidth="26385" windowHeight="11490" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -363,6 +363,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,9 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,38 +711,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -763,10 +763,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -786,11 +786,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="14">
         <v>16</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -811,10 +811,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
@@ -823,10 +823,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -835,10 +835,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -847,10 +847,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -859,10 +859,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -871,10 +871,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -883,10 +883,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -895,10 +895,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -907,10 +907,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -919,10 +919,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -960,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -974,47 +974,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF8728-0DA7-4988-A83D-7A84869DF118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1920B-954C-4518-B65F-12AF62E3E5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1395" windowWidth="26385" windowHeight="11490" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="1815" windowWidth="16935" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>Researched/proposed development environments (IDEs) compatible with possible languages and frameworks to be used.</t>
-  </si>
-  <si>
-    <t>Sprint1.doc; 
-Sprint1.pptx</t>
   </si>
   <si>
     <t>Luis Ramirez</t>
@@ -135,9 +131,6 @@
   <si>
     <t>Designed/created sign up form for users,
 worked on information for Sprint 2 presentation(class diagram and Quality Assurance tests), and provided user stories.</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 5, 6[CS,IT]</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app
@@ -146,16 +139,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">front-end folder
-Sprint2.pptx
-User Stories.docx
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">signup folder
 Slides 3, 5-7
 Sprint 2 and 3 stories
 </t>
+  </si>
+  <si>
+    <t>1, 3, 5, 6[CS, IT]</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 6[CS, IT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">front-end folder
+Sprint 2.pptx
+User Stories.docx
+</t>
+  </si>
+  <si>
+    <t>Sprint 1.doc; 
+Sprint 1.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">front-end folder
+Sprint 3.pptx
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app
+https://github.com/quentinxs/GPTMS/blob/Luis/docs/presentations/Sprint%203.pptx
+</t>
+  </si>
+  <si>
+    <t>Continued to design/revise front end UI for users once they are logged in (navigation bar, edit profile, user landing page) and signup/login forms. Assisted with user stories and Sprint 3 presentation</t>
+  </si>
+  <si>
+    <t>signup folder, navbar folder, profile folder.
+Slides 2-3</t>
   </si>
 </sst>
 </file>
@@ -322,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -365,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,38 +734,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -763,12 +786,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>25</v>
@@ -777,56 +800,68 @@
         <v>26</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="14">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="14">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
@@ -835,10 +870,10 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -847,10 +882,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -859,10 +894,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -871,10 +906,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -883,10 +918,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -895,10 +930,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -907,10 +942,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -919,10 +954,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -960,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -974,47 +1009,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1050,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -1068,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -1097,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1108,42 +1143,58 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
         <v>3</v>
       </c>
-      <c r="I7" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1220,5 +1271,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1920B-954C-4518-B65F-12AF62E3E5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA0A79-1D46-4A6E-8C98-01D1F6E0A552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="1815" windowWidth="16935" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="225" windowWidth="13425" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -176,6 +176,24 @@
   <si>
     <t>signup folder, navbar folder, profile folder.
 Slides 2-3</t>
+  </si>
+  <si>
+    <t>Worked on frontend development of user profile forms, scorecard design.
+Fixed navbar reponsiveness and routing.
+Helped with presentation powerpoint.</t>
+  </si>
+  <si>
+    <t>front-end folder
+Sprint 4.pptx</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/navbar
+https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/profile
+https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/play/play.component.html</t>
+  </si>
+  <si>
+    <t>navbar folder, profile folder, play folder
+Slides 2 and 4</t>
   </si>
 </sst>
 </file>
@@ -342,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -390,6 +408,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,18 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -734,38 +758,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -786,10 +810,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="11">
         <v>17</v>
       </c>
@@ -810,10 +834,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="14">
         <v>18</v>
       </c>
@@ -834,10 +858,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="17">
         <v>20</v>
       </c>
@@ -857,23 +881,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="18">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -882,10 +918,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -894,10 +930,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -906,10 +942,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -918,10 +954,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -930,10 +966,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -942,10 +978,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -954,10 +990,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -967,11 +1003,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -985,6 +1016,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -996,7 +1032,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1009,47 +1045,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1197,17 +1233,33 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA0A79-1D46-4A6E-8C98-01D1F6E0A552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB524E9E-FCED-4BD5-B259-A97F1ABD6EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15345" yWindow="225" windowWidth="13425" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,13 +187,14 @@
 Sprint 4.pptx</t>
   </si>
   <si>
+    <t>navbar folder, profile folder, play folder
+Slides 2 and 4</t>
+  </si>
+  <si>
     <t>https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/navbar
 https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/profile
-https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/play/play.component.html</t>
-  </si>
-  <si>
-    <t>navbar folder, profile folder, play folder
-Slides 2 and 4</t>
+https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/play/play.component.html
+https://github.com/quentinxs/GPTMS/tree/Luis/docs/presentations</t>
   </si>
 </sst>
 </file>
@@ -410,6 +411,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -422,27 +447,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -454,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -758,38 +759,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -810,10 +811,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="11">
         <v>17</v>
       </c>
@@ -834,10 +835,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="14">
         <v>18</v>
       </c>
@@ -858,10 +859,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="17">
         <v>20</v>
       </c>
@@ -881,11 +882,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="18">
         <v>16</v>
       </c>
@@ -898,18 +899,18 @@
       <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -918,10 +919,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -930,10 +931,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -942,10 +943,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -954,10 +955,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -966,10 +967,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -978,10 +979,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -990,10 +991,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -1003,6 +1004,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1016,11 +1022,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1045,47 +1046,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1920B-954C-4518-B65F-12AF62E3E5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB524E9E-FCED-4BD5-B259-A97F1ABD6EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="1815" windowWidth="16935" windowHeight="11490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="225" windowWidth="13425" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -176,6 +176,25 @@
   <si>
     <t>signup folder, navbar folder, profile folder.
 Slides 2-3</t>
+  </si>
+  <si>
+    <t>Worked on frontend development of user profile forms, scorecard design.
+Fixed navbar reponsiveness and routing.
+Helped with presentation powerpoint.</t>
+  </si>
+  <si>
+    <t>front-end folder
+Sprint 4.pptx</t>
+  </si>
+  <si>
+    <t>navbar folder, profile folder, play folder
+Slides 2 and 4</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/navbar
+https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/profile
+https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/play/play.component.html
+https://github.com/quentinxs/GPTMS/tree/Luis/docs/presentations</t>
   </si>
 </sst>
 </file>
@@ -342,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -388,6 +407,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -734,38 +759,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -786,10 +811,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="11">
         <v>17</v>
       </c>
@@ -810,10 +835,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="14">
         <v>18</v>
       </c>
@@ -834,10 +859,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="17">
         <v>20</v>
       </c>
@@ -857,23 +882,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="18">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
@@ -882,10 +919,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
@@ -894,10 +931,10 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
@@ -906,10 +943,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -918,10 +955,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -930,10 +967,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -942,10 +979,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -954,10 +991,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -996,7 +1033,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1009,47 +1046,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1197,17 +1234,33 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">

--- a/docs/efforts/Luis Ramirez.xlsx
+++ b/docs/efforts/Luis Ramirez.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouieBoy\Documents\GitHub\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB524E9E-FCED-4BD5-B259-A97F1ABD6EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9AA71A-7C1C-4B19-98B3-35407FA66C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="225" windowWidth="13425" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16935" yWindow="6375" windowWidth="16815" windowHeight="13710" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -195,6 +195,62 @@
 https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/profile
 https://github.com/quentinxs/GPTMS/blob/master/front-end/src/app/play/play.component.html
 https://github.com/quentinxs/GPTMS/tree/Luis/docs/presentations</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6[CS, IT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">front-end folder
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend development of user profile form, scorecard design, and play form.
+Attempted connection/routing between front and back end for starting a game
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/profile
+https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/history
+https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/play
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navbar folder, profile folder, play folder under Luis branch
+</t>
+  </si>
+  <si>
+    <t>1, 6[CS, IT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend development of play form.
+Attempted connection/routing between front and back end for selecting game settings
+</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/Luis/front-end/src/app/play
+https://github.com/quentinxs/GPTMS/blob/Luis/front-end/src/app/course.service.ts
+https://github.com/quentinxs/GPTMS/blob/Quentin/front-end/src/app/hole.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course.service.ts and hole.ts files, play folder under Luis branch
+</t>
+  </si>
+  <si>
+    <t>4, 6[CS, IT]</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/Luis/front-end/src/app/game.service.ts
+https://github.com/quentinxs/GPTMS/blob/Luis/front-end/src/app/game/game.component.html
+https://github.com/quentinxs/GPTMS/blob/Luis/front-end/src/app/game/game.component.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game.service.ts and the play folder in front-end under Luis branch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend development of party location and game form functionality.
+Assisted with security and implementing HTTPS for the application.
+</t>
   </si>
 </sst>
 </file>
@@ -361,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -415,6 +471,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +489,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,9 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -742,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,38 +824,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
@@ -811,10 +876,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="11">
         <v>17</v>
       </c>
@@ -835,10 +900,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="14">
         <v>18</v>
       </c>
@@ -859,10 +924,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="17">
         <v>20</v>
       </c>
@@ -882,11 +947,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:8" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="18">
         <v>16</v>
       </c>
@@ -906,47 +971,83 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="20">
+        <v>18</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="21">
         <v>17</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="22">
+        <v>16</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -955,10 +1056,10 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -967,10 +1068,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -979,10 +1080,10 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -991,10 +1092,10 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -1032,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1046,47 +1147,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1263,43 +1364,91 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8</v>
+      </c>
+      <c r="I12" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
